--- a/Original Excel Files/DD.xlsx
+++ b/Original Excel Files/DD.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25D0EF2-7376-4290-AE09-BEC92E046705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -318,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,13 +370,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -387,6 +396,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,7 +447,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,9 +480,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,6 +532,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,536 +724,705 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:G66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A9:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H15"/>
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1969</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2004</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1998</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2006</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2006</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1948</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1993</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1951</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1973</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1999</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1972</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1997</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1999</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1992</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1992</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1996</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1992</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1992</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1971</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1995</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1993</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1988</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D35" s="3">
-        <v>1969</v>
+        <v>1988</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="D36" s="3">
-        <v>1977</v>
+        <v>1988</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D38" s="3">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D39" s="3">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="D40" s="3">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D41" s="3">
-        <v>1948</v>
+        <v>1983</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1993</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>21</v>
+      <c r="A42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1951</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1973</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1999</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1972</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1997</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1999</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="3">
-        <v>1992</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1992</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53" s="3">
-        <v>1996</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="3">
-        <v>1992</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="3">
-        <v>1992</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1971</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="3">
-        <v>1995</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1993</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1988</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1988</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="3">
-        <v>1988</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="3">
-        <v>1995</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="3">
-        <v>1991</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1996</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="3">
-        <v>1995</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G66">
+    <sortCondition ref="A1:A66"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1219,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
